--- a/lecture/Real GDP Growth (IMF).xlsx
+++ b/lecture/Real GDP Growth (IMF).xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Python Course\Spring 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed Saffari\Documents\GitHub\alzahra-workshop-spr2021\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CFA2C-A757-4B70-8525-0F294B3ACFCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5477AD-FA7B-4DED-A572-232B940DF6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{77E7FE06-2D55-4C1D-BAF0-D09914AA89A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{77E7FE06-2D55-4C1D-BAF0-D09914AA89A1}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_1" sheetId="1" r:id="rId1"/>
     <sheet name="growth_2020" sheetId="2" r:id="rId2"/>
-    <sheet name="GDP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="197">
   <si>
     <t>year</t>
   </si>
@@ -549,15 +548,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Investment</t>
   </si>
   <si>
     <t>China, People's Republic of</t>
@@ -633,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,12 +638,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303F9F"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -856,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5161B4-8A43-4A5B-BCB9-A83149EE81B1}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
@@ -1292,7 +1273,7 @@
         <v>4.5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H2" s="9">
         <v>-0.3</v>
@@ -1318,7 +1299,7 @@
         <v>1.6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H3" s="4">
         <v>2.5</v>
@@ -1344,7 +1325,7 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4" s="4">
         <v>-1.8</v>
@@ -1370,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H5" s="4">
         <v>4.5999999999999996</v>
@@ -1396,7 +1377,7 @@
         <v>6.1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H6" s="4">
         <v>7.2</v>
@@ -1422,7 +1403,7 @@
         <v>5.6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H7" s="4">
         <v>4.2</v>
@@ -1448,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H8" s="4">
         <v>3.5</v>
@@ -1474,7 +1455,7 @@
         <v>1.8</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H9" s="4">
         <v>3.5</v>
@@ -1500,7 +1481,7 @@
         <v>-0.3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4">
         <v>4.2</v>
@@ -1526,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H11" s="4">
         <v>3.7</v>
@@ -1552,7 +1533,7 @@
         <v>1.9</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H12" s="4">
         <v>1.9</v>
@@ -2503,21 +2484,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E015F8A9-005F-4B74-91AA-EDC7784DCEC1}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <v>2020</v>
       </c>
     </row>
@@ -2525,7 +2506,7 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>-5</v>
       </c>
     </row>
@@ -2533,7 +2514,7 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>-3.5</v>
       </c>
     </row>
@@ -2541,7 +2522,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>-6</v>
       </c>
     </row>
@@ -2549,23 +2530,23 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="17">
+        <v>175</v>
+      </c>
+      <c r="B6" s="16">
         <v>-17.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="17">
+        <v>176</v>
+      </c>
+      <c r="B7" s="16">
         <v>-10</v>
       </c>
     </row>
@@ -2573,7 +2554,7 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>-7.6</v>
       </c>
     </row>
@@ -2581,7 +2562,7 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>-25.5</v>
       </c>
     </row>
@@ -2589,7 +2570,7 @@
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>-2.4</v>
       </c>
     </row>
@@ -2597,7 +2578,7 @@
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>-6.6</v>
       </c>
     </row>
@@ -2605,7 +2586,7 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>-4.3</v>
       </c>
     </row>
@@ -2613,7 +2594,7 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>-16.3</v>
       </c>
     </row>
@@ -2621,7 +2602,7 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>-5.4</v>
       </c>
     </row>
@@ -2629,7 +2610,7 @@
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>3.8</v>
       </c>
     </row>
@@ -2637,7 +2618,7 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>-17.600000000000001</v>
       </c>
     </row>
@@ -2645,7 +2626,7 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>-0.9</v>
       </c>
     </row>
@@ -2653,7 +2634,7 @@
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>-6.4</v>
       </c>
     </row>
@@ -2661,7 +2642,7 @@
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>-14.1</v>
       </c>
     </row>
@@ -2669,7 +2650,7 @@
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>2</v>
       </c>
     </row>
@@ -2677,7 +2658,7 @@
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>-0.8</v>
       </c>
     </row>
@@ -2685,23 +2666,23 @@
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>-7.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="17">
+        <v>177</v>
+      </c>
+      <c r="B23" s="16">
         <v>-5.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="17">
+        <v>178</v>
+      </c>
+      <c r="B24" s="16">
         <v>-8.3000000000000007</v>
       </c>
     </row>
@@ -2709,7 +2690,7 @@
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>-4.0999999999999996</v>
       </c>
     </row>
@@ -2717,7 +2698,7 @@
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>1.2</v>
       </c>
     </row>
@@ -2725,15 +2706,15 @@
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>-3.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="17">
+        <v>179</v>
+      </c>
+      <c r="B28" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -2741,7 +2722,7 @@
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>-1.3</v>
       </c>
     </row>
@@ -2749,7 +2730,7 @@
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>-14</v>
       </c>
     </row>
@@ -2757,7 +2738,7 @@
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>-3.5</v>
       </c>
     </row>
@@ -2765,7 +2746,7 @@
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>-2.8</v>
       </c>
     </row>
@@ -2773,15 +2754,15 @@
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>-5.4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="17">
+        <v>180</v>
+      </c>
+      <c r="B34" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2789,7 +2770,7 @@
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>-0.9</v>
       </c>
     </row>
@@ -2797,15 +2778,15 @@
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>-5.8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="17">
+        <v>174</v>
+      </c>
+      <c r="B37" s="16">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2813,7 +2794,7 @@
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>-6.8</v>
       </c>
     </row>
@@ -2821,7 +2802,7 @@
       <c r="A39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>-0.5</v>
       </c>
     </row>
@@ -2829,7 +2810,7 @@
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>-0.1</v>
       </c>
     </row>
@@ -2837,7 +2818,7 @@
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>-7.8</v>
       </c>
     </row>
@@ -2845,7 +2826,7 @@
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>-4.8</v>
       </c>
     </row>
@@ -2853,7 +2834,7 @@
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>-9</v>
       </c>
     </row>
@@ -2861,7 +2842,7 @@
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>-5.0999999999999996</v>
       </c>
     </row>
@@ -2869,7 +2850,7 @@
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>-5.6</v>
       </c>
     </row>
@@ -2877,7 +2858,7 @@
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2885,7 +2866,7 @@
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>-3.3</v>
       </c>
     </row>
@@ -2893,7 +2874,7 @@
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -2901,7 +2882,7 @@
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>-10.4</v>
       </c>
     </row>
@@ -2909,7 +2890,7 @@
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>-6.7</v>
       </c>
     </row>
@@ -2917,7 +2898,7 @@
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>-7.5</v>
       </c>
     </row>
@@ -2925,7 +2906,7 @@
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>3.6</v>
       </c>
     </row>
@@ -2933,7 +2914,7 @@
       <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>-8.6</v>
       </c>
     </row>
@@ -2941,7 +2922,7 @@
       <c r="A54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>-5.8</v>
       </c>
     </row>
@@ -2949,7 +2930,7 @@
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>-0.6</v>
       </c>
     </row>
@@ -2957,7 +2938,7 @@
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>-2.9</v>
       </c>
     </row>
@@ -2965,7 +2946,7 @@
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>-3.3</v>
       </c>
     </row>
@@ -2973,7 +2954,7 @@
       <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>6.1</v>
       </c>
     </row>
@@ -2981,7 +2962,7 @@
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>-19</v>
       </c>
     </row>
@@ -2989,7 +2970,7 @@
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>-2.9</v>
       </c>
     </row>
@@ -2997,7 +2978,7 @@
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>-8.1999999999999993</v>
       </c>
     </row>
@@ -3005,7 +2986,7 @@
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>-1.8</v>
       </c>
     </row>
@@ -3013,7 +2994,7 @@
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3002,7 @@
       <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>-6.1</v>
       </c>
     </row>
@@ -3029,15 +3010,15 @@
       <c r="A65" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="16">
         <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="17">
+        <v>181</v>
+      </c>
+      <c r="B66" s="16">
         <v>0.9</v>
       </c>
     </row>
@@ -3045,15 +3026,15 @@
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="17">
+        <v>182</v>
+      </c>
+      <c r="B68" s="16">
         <v>-13.5</v>
       </c>
     </row>
@@ -3061,7 +3042,7 @@
       <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>-1.5</v>
       </c>
     </row>
@@ -3069,7 +3050,7 @@
       <c r="A70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="16">
         <v>5.2</v>
       </c>
     </row>
@@ -3077,15 +3058,15 @@
       <c r="A71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>-2.4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" s="17">
+        <v>183</v>
+      </c>
+      <c r="B72" s="16">
         <v>43.4</v>
       </c>
     </row>
@@ -3093,7 +3074,7 @@
       <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="16">
         <v>-3.7</v>
       </c>
     </row>
@@ -3101,7 +3082,7 @@
       <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="16">
         <v>-8</v>
       </c>
     </row>
@@ -3109,7 +3090,7 @@
       <c r="A75" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="16">
         <v>-6.1</v>
       </c>
     </row>
@@ -3117,7 +3098,7 @@
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="16">
         <v>-5</v>
       </c>
     </row>
@@ -3125,7 +3106,7 @@
       <c r="A77" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="16">
         <v>-6.6</v>
       </c>
     </row>
@@ -3133,7 +3114,7 @@
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="16">
         <v>-8</v>
       </c>
     </row>
@@ -3141,7 +3122,7 @@
       <c r="A79" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="16">
         <v>-2.1</v>
       </c>
     </row>
@@ -3149,7 +3130,7 @@
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -3157,7 +3138,7 @@
       <c r="A81" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="16">
         <v>-10.9</v>
       </c>
     </row>
@@ -3165,7 +3146,7 @@
       <c r="A82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="16">
         <v>2.5</v>
       </c>
     </row>
@@ -3173,7 +3154,7 @@
       <c r="A83" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="16">
         <v>-2.4</v>
       </c>
     </row>
@@ -3181,7 +3162,7 @@
       <c r="A84" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="16">
         <v>-8.9</v>
       </c>
     </row>
@@ -3189,7 +3170,7 @@
       <c r="A85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="16">
         <v>-10.199999999999999</v>
       </c>
     </row>
@@ -3197,7 +3178,7 @@
       <c r="A86" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="16">
         <v>-4.8</v>
       </c>
     </row>
@@ -3205,7 +3186,7 @@
       <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>-2</v>
       </c>
     </row>
@@ -3213,7 +3194,7 @@
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>-2.6</v>
       </c>
     </row>
@@ -3221,7 +3202,7 @@
       <c r="A89" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>-0.1</v>
       </c>
     </row>
@@ -3229,7 +3210,7 @@
       <c r="A90" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>-0.5</v>
       </c>
     </row>
@@ -3237,7 +3218,7 @@
       <c r="A91" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -3245,7 +3226,7 @@
       <c r="A92" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>-6</v>
       </c>
     </row>
@@ -3253,7 +3234,7 @@
       <c r="A93" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>-8.1</v>
       </c>
     </row>
@@ -3261,7 +3242,7 @@
       <c r="A94" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>-8</v>
       </c>
     </row>
@@ -3269,7 +3250,7 @@
       <c r="A95" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="16">
         <v>-0.4</v>
       </c>
     </row>
@@ -3277,7 +3258,7 @@
       <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>-3.6</v>
       </c>
     </row>
@@ -3285,7 +3266,7 @@
       <c r="A97" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="16">
         <v>-25</v>
       </c>
     </row>
@@ -3293,7 +3274,7 @@
       <c r="A98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="16">
         <v>-4.5</v>
       </c>
     </row>
@@ -3301,7 +3282,7 @@
       <c r="A99" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="16">
         <v>-3</v>
       </c>
     </row>
@@ -3309,7 +3290,7 @@
       <c r="A100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="16">
         <v>-59.7</v>
       </c>
     </row>
@@ -3317,7 +3298,7 @@
       <c r="A101" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="16">
         <v>-0.8</v>
       </c>
     </row>
@@ -3325,15 +3306,15 @@
       <c r="A102" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="16">
         <v>-1.3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="17">
+        <v>184</v>
+      </c>
+      <c r="B103" s="16">
         <v>-56.3</v>
       </c>
     </row>
@@ -3341,7 +3322,7 @@
       <c r="A104" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="16">
         <v>-4.2</v>
       </c>
     </row>
@@ -3349,7 +3330,7 @@
       <c r="A105" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="16">
         <v>0.6</v>
       </c>
     </row>
@@ -3357,7 +3338,7 @@
       <c r="A106" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="16">
         <v>-5.6</v>
       </c>
     </row>
@@ -3365,7 +3346,7 @@
       <c r="A107" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="16">
         <v>-32.200000000000003</v>
       </c>
     </row>
@@ -3373,7 +3354,7 @@
       <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="16">
         <v>-2</v>
       </c>
     </row>
@@ -3381,7 +3362,7 @@
       <c r="A109" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="16">
         <v>-7</v>
       </c>
     </row>
@@ -3389,7 +3370,7 @@
       <c r="A110" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="16">
         <v>-3.3</v>
       </c>
     </row>
@@ -3397,7 +3378,7 @@
       <c r="A111" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -3405,7 +3386,7 @@
       <c r="A112" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>-15.8</v>
       </c>
     </row>
@@ -3413,7 +3394,7 @@
       <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>-8.1999999999999993</v>
       </c>
     </row>
@@ -3421,7 +3402,7 @@
       <c r="A114" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>-1.6</v>
       </c>
     </row>
@@ -3429,7 +3410,7 @@
       <c r="A115" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>-7.5</v>
       </c>
     </row>
@@ -3437,7 +3418,7 @@
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>-5.3</v>
       </c>
     </row>
@@ -3445,7 +3426,7 @@
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>-15.2</v>
       </c>
     </row>
@@ -3453,7 +3434,7 @@
       <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>-7</v>
       </c>
     </row>
@@ -3461,7 +3442,7 @@
       <c r="A119" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="16">
         <v>-0.5</v>
       </c>
     </row>
@@ -3469,23 +3450,23 @@
       <c r="A120" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>3.2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="17">
+        <v>185</v>
+      </c>
+      <c r="B121" s="16">
         <v>-7.2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="17">
+        <v>186</v>
+      </c>
+      <c r="B122" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -3493,7 +3474,7 @@
       <c r="A123" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>-1.9</v>
       </c>
     </row>
@@ -3501,7 +3482,7 @@
       <c r="A124" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>-3.8</v>
       </c>
     </row>
@@ -3509,7 +3490,7 @@
       <c r="A125" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>-3</v>
       </c>
     </row>
@@ -3517,7 +3498,7 @@
       <c r="A126" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>-3</v>
       </c>
     </row>
@@ -3525,7 +3506,7 @@
       <c r="A127" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="16">
         <v>1.2</v>
       </c>
     </row>
@@ -3533,15 +3514,15 @@
       <c r="A128" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="16">
         <v>-1.8</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B129" s="17">
+        <v>187</v>
+      </c>
+      <c r="B129" s="16">
         <v>-4.5</v>
       </c>
     </row>
@@ -3549,7 +3530,7 @@
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="16">
         <v>-0.8</v>
       </c>
     </row>
@@ -3557,7 +3538,7 @@
       <c r="A131" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="16">
         <v>-6.4</v>
       </c>
     </row>
@@ -3565,7 +3546,7 @@
       <c r="A132" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="16">
         <v>-0.4</v>
       </c>
     </row>
@@ -3573,15 +3554,15 @@
       <c r="A133" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="16">
         <v>-10.3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B134" s="17">
+        <v>188</v>
+      </c>
+      <c r="B134" s="16">
         <v>-17.899999999999999</v>
       </c>
     </row>
@@ -3589,7 +3570,7 @@
       <c r="A135" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B135" s="17">
+      <c r="B135" s="16">
         <v>-3.9</v>
       </c>
     </row>
@@ -3597,7 +3578,7 @@
       <c r="A136" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="16">
         <v>-0.9</v>
       </c>
     </row>
@@ -3605,7 +3586,7 @@
       <c r="A137" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B137" s="17">
+      <c r="B137" s="16">
         <v>-11.1</v>
       </c>
     </row>
@@ -3613,7 +3594,7 @@
       <c r="A138" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B138" s="17">
+      <c r="B138" s="16">
         <v>-9.5</v>
       </c>
     </row>
@@ -3621,7 +3602,7 @@
       <c r="A139" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="17">
+      <c r="B139" s="16">
         <v>-2.7</v>
       </c>
     </row>
@@ -3629,7 +3610,7 @@
       <c r="A140" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="17">
+      <c r="B140" s="16">
         <v>-7.6</v>
       </c>
     </row>
@@ -3637,7 +3618,7 @@
       <c r="A141" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B141" s="16">
         <v>-7.5</v>
       </c>
     </row>
@@ -3645,7 +3626,7 @@
       <c r="A142" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B142" s="16">
         <v>-2.6</v>
       </c>
     </row>
@@ -3653,7 +3634,7 @@
       <c r="A143" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B143" s="16">
         <v>-3.9</v>
       </c>
     </row>
@@ -3661,7 +3642,7 @@
       <c r="A144" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B144" s="16">
         <v>-3.1</v>
       </c>
     </row>
@@ -3669,7 +3650,7 @@
       <c r="A145" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>-0.2</v>
       </c>
     </row>
@@ -3677,7 +3658,7 @@
       <c r="A146" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B146" s="16">
         <v>-18.7</v>
       </c>
     </row>
@@ -3685,15 +3666,15 @@
       <c r="A147" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="16">
         <v>-18.899999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="17">
+        <v>189</v>
+      </c>
+      <c r="B148" s="16">
         <v>-4.2</v>
       </c>
     </row>
@@ -3701,7 +3682,7 @@
       <c r="A149" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B149" s="17">
+      <c r="B149" s="16">
         <v>-3.2</v>
       </c>
     </row>
@@ -3709,7 +3690,7 @@
       <c r="A150" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="17">
+      <c r="B150" s="16">
         <v>-9.6999999999999993</v>
       </c>
     </row>
@@ -3717,7 +3698,7 @@
       <c r="A151" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="17">
+      <c r="B151" s="16">
         <v>-4.0999999999999996</v>
       </c>
     </row>
@@ -3725,7 +3706,7 @@
       <c r="A152" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="17">
+      <c r="B152" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -3733,7 +3714,7 @@
       <c r="A153" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B153" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -3741,7 +3722,7 @@
       <c r="A154" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="17">
+      <c r="B154" s="16">
         <v>-13.4</v>
       </c>
     </row>
@@ -3749,7 +3730,7 @@
       <c r="A155" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="17">
+      <c r="B155" s="16">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -3757,7 +3738,7 @@
       <c r="A156" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="17">
+      <c r="B156" s="16">
         <v>-5.4</v>
       </c>
     </row>
@@ -3765,7 +3746,7 @@
       <c r="A157" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="17">
+      <c r="B157" s="16">
         <v>-5.2</v>
       </c>
     </row>
@@ -3773,7 +3754,7 @@
       <c r="A158" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B158" s="17">
+      <c r="B158" s="16">
         <v>-5.5</v>
       </c>
     </row>
@@ -3781,7 +3762,7 @@
       <c r="A159" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B159" s="17">
+      <c r="B159" s="16">
         <v>-4.3</v>
       </c>
     </row>
@@ -3789,23 +3770,23 @@
       <c r="A160" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B160" s="17">
+      <c r="B160" s="16">
         <v>-1.5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B161" s="17">
+        <v>190</v>
+      </c>
+      <c r="B161" s="16">
         <v>-7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B162" s="17">
+        <v>191</v>
+      </c>
+      <c r="B162" s="16">
         <v>-6.6</v>
       </c>
     </row>
@@ -3813,7 +3794,7 @@
       <c r="A163" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B163" s="17">
+      <c r="B163" s="16">
         <v>-11</v>
       </c>
     </row>
@@ -3821,7 +3802,7 @@
       <c r="A164" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B164" s="17">
+      <c r="B164" s="16">
         <v>-3.6</v>
       </c>
     </row>
@@ -3829,15 +3810,15 @@
       <c r="A165" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B165" s="17">
+      <c r="B165" s="16">
         <v>-3.6</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B166" s="17">
+        <v>192</v>
+      </c>
+      <c r="B166" s="16">
         <v>-13.5</v>
       </c>
     </row>
@@ -3845,7 +3826,7 @@
       <c r="A167" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B167" s="17">
+      <c r="B167" s="16">
         <v>-2.8</v>
       </c>
     </row>
@@ -3853,7 +3834,7 @@
       <c r="A168" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B168" s="17">
+      <c r="B168" s="16">
         <v>-3</v>
       </c>
     </row>
@@ -3861,15 +3842,15 @@
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="17">
+      <c r="B169" s="16">
         <v>-6.5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B170" s="17">
+        <v>193</v>
+      </c>
+      <c r="B170" s="16">
         <v>3.1</v>
       </c>
     </row>
@@ -3877,7 +3858,7 @@
       <c r="A171" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B171" s="17">
+      <c r="B171" s="16">
         <v>4.5</v>
       </c>
     </row>
@@ -3885,7 +3866,7 @@
       <c r="A172" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B172" s="17">
+      <c r="B172" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3893,7 +3874,7 @@
       <c r="A173" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B173" s="17">
+      <c r="B173" s="16">
         <v>-6.1</v>
       </c>
     </row>
@@ -3901,7 +3882,7 @@
       <c r="A174" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B174" s="17">
+      <c r="B174" s="16">
         <v>-6.8</v>
       </c>
     </row>
@@ -3909,7 +3890,7 @@
       <c r="A175" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B175" s="17">
+      <c r="B175" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -3917,7 +3898,7 @@
       <c r="A176" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B176" s="17">
+      <c r="B176" s="16">
         <v>-0.5</v>
       </c>
     </row>
@@ -3925,7 +3906,7 @@
       <c r="A177" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B177" s="17">
+      <c r="B177" s="16">
         <v>-7.8</v>
       </c>
     </row>
@@ -3933,7 +3914,7 @@
       <c r="A178" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B178" s="17">
+      <c r="B178" s="16">
         <v>-8.8000000000000007</v>
       </c>
     </row>
@@ -3941,7 +3922,7 @@
       <c r="A179" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B179" s="17">
+      <c r="B179" s="16">
         <v>1.8</v>
       </c>
     </row>
@@ -3949,7 +3930,7 @@
       <c r="A180" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B180" s="17">
+      <c r="B180" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -3957,7 +3938,7 @@
       <c r="A181" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B181" s="17">
+      <c r="B181" s="16">
         <v>0.5</v>
       </c>
     </row>
@@ -3965,7 +3946,7 @@
       <c r="A182" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B182" s="17">
+      <c r="B182" s="16">
         <v>-2.1</v>
       </c>
     </row>
@@ -3973,7 +3954,7 @@
       <c r="A183" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B183" s="17">
+      <c r="B183" s="16">
         <v>-4.2</v>
       </c>
     </row>
@@ -3981,7 +3962,7 @@
       <c r="A184" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B184" s="17">
+      <c r="B184" s="16">
         <v>-5.9</v>
       </c>
     </row>
@@ -3989,7 +3970,7 @@
       <c r="A185" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B185" s="17">
+      <c r="B185" s="16">
         <v>-9.9</v>
       </c>
     </row>
@@ -3997,7 +3978,7 @@
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="17">
+      <c r="B186" s="16">
         <v>-3.5</v>
       </c>
     </row>
@@ -4005,7 +3986,7 @@
       <c r="A187" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B187" s="17">
+      <c r="B187" s="16">
         <v>-5.7</v>
       </c>
     </row>
@@ -4013,7 +3994,7 @@
       <c r="A188" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B188" s="17">
+      <c r="B188" s="16">
         <v>1.6</v>
       </c>
     </row>
@@ -4021,7 +4002,7 @@
       <c r="A189" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B189" s="17">
+      <c r="B189" s="16">
         <v>-9.1999999999999993</v>
       </c>
     </row>
@@ -4029,23 +4010,23 @@
       <c r="A190" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B190" s="17">
+      <c r="B190" s="16">
         <v>-30</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B191" s="17">
+        <v>194</v>
+      </c>
+      <c r="B191" s="16">
         <v>2.9</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B192" s="17">
+        <v>195</v>
+      </c>
+      <c r="B192" s="16">
         <v>-11</v>
       </c>
     </row>
@@ -4053,7 +4034,7 @@
       <c r="A193" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B193" s="17">
+      <c r="B193" s="16">
         <v>-5</v>
       </c>
     </row>
@@ -4061,7 +4042,7 @@
       <c r="A194" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B194" s="17">
+      <c r="B194" s="16">
         <v>-3.5</v>
       </c>
     </row>
@@ -4069,121 +4050,9 @@
       <c r="A195" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B195" s="18">
+      <c r="B195" s="17">
         <v>-8</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2383724D-7113-4F0A-926D-417067B77FA1}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1390</v>
-      </c>
-      <c r="B2" s="12">
-        <v>6364368</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1712186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1391</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5873423</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1386790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1392</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5854329</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1278968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1393</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6042535</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1378993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1394</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5946680</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1212858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1395</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6691109</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1167710</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1396</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6940834</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1183830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lecture/Real GDP Growth (IMF).xlsx
+++ b/lecture/Real GDP Growth (IMF).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed Saffari\Documents\GitHub\alzahra-workshop-spr2021\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5477AD-FA7B-4DED-A572-232B940DF6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE2EF6-84C2-449B-997E-B41B8897876D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{77E7FE06-2D55-4C1D-BAF0-D09914AA89A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77E7FE06-2D55-4C1D-BAF0-D09914AA89A1}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_1" sheetId="1" r:id="rId1"/>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
